--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.813100.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.813100.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F8C7CDC-2671-4BD6-8380-B767894B44AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01F73DAC-E6DF-4C5C-8FCA-C13B9FEF259F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T071518.741" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T071224.079" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.813100.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.813100.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01F73DAC-E6DF-4C5C-8FCA-C13B9FEF259F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D9DDBE8-3F77-4DE3-AA5E-775B48F18B6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T071224.079" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T071740.123" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t>Do Ty</t>
   </si>
@@ -176,6 +176,51 @@
   </si>
   <si>
     <t>Account Number</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>CASH JOURNAL - IDR</t>
+  </si>
+  <si>
+    <t>ENTERTAINMENT</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>General Ledger</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>General Accounting</t>
+  </si>
+  <si>
+    <t>TSANTIKA</t>
+  </si>
+  <si>
+    <t>JDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t>MAKAN BUYER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   .</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -671,8 +716,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1028,7 +1075,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ5"/>
+  <dimension ref="A1:AZ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1193,23 +1240,309 @@
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>24001029</v>
+      </c>
+      <c r="D2">
+        <v>1204</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45350</v>
+      </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="G2">
+        <v>64.62</v>
+      </c>
+      <c r="H2">
+        <v>64.62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1021200</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1021200</v>
+      </c>
+      <c r="O2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2">
+        <v>15803</v>
+      </c>
+      <c r="T2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2">
+        <v>2106355</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2">
+        <v>2</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP2">
+        <v>1205</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY2">
+        <v>813100</v>
+      </c>
+      <c r="AZ2">
+        <v>1205.8131000000001</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>24001035</v>
+      </c>
+      <c r="D3">
+        <v>1204</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45351</v>
+      </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="G3">
+        <v>12.65</v>
+      </c>
+      <c r="H3">
+        <v>12.65</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="2">
+        <v>199900</v>
+      </c>
+      <c r="N3" s="2">
+        <v>199900</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3">
+        <v>15803</v>
+      </c>
+      <c r="T3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3">
+        <v>2106428</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP3">
+        <v>1205</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY3">
+        <v>813100</v>
+      </c>
+      <c r="AZ3">
+        <v>1205.8131000000001</v>
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>54</v>
+        <v>67</v>
+      </c>
+      <c r="G4">
+        <v>77.27</v>
+      </c>
+      <c r="H4">
+        <v>77.27</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1221100</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1221100</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="G5">
+        <v>77.27</v>
+      </c>
+      <c r="H5">
+        <v>77.27</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1221100</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1221100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6">
+        <v>77.27</v>
+      </c>
+      <c r="H6">
+        <v>77.27</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1221100</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1221100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
